--- a/odkx/forms/hh_mosquito_net.xlsx
+++ b/odkx/forms/hh_mosquito_net.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="survey" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="choices" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="settings" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="model_2" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="model" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -179,6 +179,21 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">display.title.text.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title.text.sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text.sw</t>
+  </si>
+  <si>
     <t xml:space="preserve">form_id</t>
   </si>
   <si>
@@ -198,6 +213,24 @@
   </si>
   <si>
     <t xml:space="preserve">instance_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Português</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiswahili</t>
   </si>
   <si>
     <t xml:space="preserve">hh_id</t>
@@ -213,7 +246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -280,12 +313,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -332,7 +359,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -370,10 +397,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -400,7 +423,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -441,11 +464,11 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -545,7 +568,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.22"/>
@@ -722,68 +745,136 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="E1" s="0" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="G1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>20210119001</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -808,10 +899,10 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.76"/>
   </cols>
   <sheetData>
@@ -828,10 +919,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -839,7 +930,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -847,7 +938,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -855,7 +946,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/forms/hh_mosquito_net.xlsx
+++ b/odkx/forms/hh_mosquito_net.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="choices" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="settings" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="model" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="table_specific_translations" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="109">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -50,7 +51,7 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">display.prompt.text</t>
+    <t xml:space="preserve">display.prompt</t>
   </si>
   <si>
     <t xml:space="preserve">begin screen</t>
@@ -65,178 +66,292 @@
     <t xml:space="preserve">obtain_net_how_long_ago</t>
   </si>
   <si>
+    <t xml:space="preserve">q55a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yndk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">net_sleep_last_night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q55b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one_with_other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">net_purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">net_used_other_purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q55c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice_list_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1_year_ago_or_less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">within_the_past_1-3_years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">more_than_3_years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleep_only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">garden_netting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fishing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surrounding_hennery/hennery_construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preparing_cereals/corn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cover_vegetables_crops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setting_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title.text.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title.text.sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text.sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_mosquito_net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">table_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mosquito Nets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instance_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Português</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiswahili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string_token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text.pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text.sw</t>
+  </si>
+  <si>
     <t xml:space="preserve">55a. How long ago did you obtain the net?</t>
   </si>
   <si>
-    <t xml:space="preserve">yndk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net_sleep_last_night</t>
+    <t xml:space="preserve">55a. Há quanto tempo adquiriu a rede?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55a. Ulipata chandarua hiki muda gani uliopita?</t>
   </si>
   <si>
     <t xml:space="preserve">55b. Did someone sleep inside this net last night?</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one_with_other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net_purpose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">net_used_other_purpose</t>
+    <t xml:space="preserve">55b. Alguém dormiu dentro desta rede na noite passada?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55b. Je, kunaye aliyelala ndani ya chandarua hiki usiku uliopita?</t>
   </si>
   <si>
     <t xml:space="preserve">55c. Is the net being used for anything else other than sleeping under?</t>
   </si>
   <si>
-    <t xml:space="preserve">end screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice_list_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.title.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
+    <t xml:space="preserve">55c. A rede está a ser usada para outra finalidade que não seja dormir debaixo da mesma?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55c. Je, chandarua hiki kinatumika kwa kazi nyingine yoyote isipokuwa kulala ndani yake?</t>
   </si>
   <si>
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">no</t>
+    <t xml:space="preserve">Sim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ndiyo</t>
   </si>
   <si>
     <t xml:space="preserve">No</t>
   </si>
   <si>
-    <t xml:space="preserve">dk</t>
+    <t xml:space="preserve">Não</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hapana</t>
   </si>
   <si>
     <t xml:space="preserve">Don't Know</t>
   </si>
   <si>
-    <t xml:space="preserve">1_year_ago_or_less</t>
+    <t xml:space="preserve">Não sabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sijui</t>
   </si>
   <si>
     <t xml:space="preserve">1 year ago or less</t>
   </si>
   <si>
-    <t xml:space="preserve">within_the_past_1-3_years</t>
+    <t xml:space="preserve">Há 1 ano ou menos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mwaka 1 uliopita au chini</t>
   </si>
   <si>
     <t xml:space="preserve">Within the past 1-3 years</t>
   </si>
   <si>
-    <t xml:space="preserve">more_than_3_years</t>
+    <t xml:space="preserve">Nos últimos 1-3 anos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ndani ya mwaka 1-3 iliyopita</t>
   </si>
   <si>
     <t xml:space="preserve">More than 3 years</t>
   </si>
   <si>
-    <t xml:space="preserve">Don’t know</t>
+    <t xml:space="preserve">Há mais de 3 anos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zaidi ya miaka 3 iliyopita</t>
   </si>
   <si>
     <t xml:space="preserve">No, just for sleeping under</t>
   </si>
   <si>
-    <t xml:space="preserve">garden_netting</t>
+    <t xml:space="preserve">Não, apenas para dormir debaixo dela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hapana, kulala ndani yake tu</t>
   </si>
   <si>
     <t xml:space="preserve">For garden netting</t>
   </si>
   <si>
-    <t xml:space="preserve">fishing</t>
+    <t xml:space="preserve">Para rede de jardim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inatumika kama uzio wa bustani</t>
   </si>
   <si>
     <t xml:space="preserve">For fishing</t>
   </si>
   <si>
-    <t xml:space="preserve">surrounding_hennery/hennery_construction</t>
+    <t xml:space="preserve">Para pescar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kutega samaki</t>
   </si>
   <si>
     <t xml:space="preserve">To surround hennery/hennery construction</t>
   </si>
   <si>
-    <t xml:space="preserve">preparing_cereals/corn</t>
+    <t xml:space="preserve">Para cercar galinhas/capoeiras/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzio/ujenzi wa banda la kuku</t>
   </si>
   <si>
     <t xml:space="preserve">To prepare cereals/corn</t>
   </si>
   <si>
-    <t xml:space="preserve">cover_vegetables_crops</t>
+    <t xml:space="preserve">Para preparar cereais/milho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuandaa nafaka/mahindi, mchele ngano na mtama</t>
   </si>
   <si>
     <t xml:space="preserve">To protect/cover vegetables/crops</t>
   </si>
   <si>
-    <t xml:space="preserve">setting_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.title.text.pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.title.text.sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.locale.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.locale.text.pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display.locale.text.sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hh_mosquito_net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">table_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mosquito Nets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instance_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Português</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiswahili</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hh_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
+    <t xml:space="preserve">Para proteger/cobrir hortas/culturas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kulinda/kufunika mboga/mimea</t>
   </si>
 </sst>
 </file>
@@ -423,7 +538,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -465,10 +580,17 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.86"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -483,7 +605,7 @@
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -494,7 +616,6 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
@@ -507,7 +628,7 @@
       <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -522,7 +643,7 @@
       <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="0" t="s">
         <v>16</v>
       </c>
     </row>
@@ -537,7 +658,7 @@
       <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="0" t="s">
         <v>20</v>
       </c>
     </row>
@@ -568,11 +689,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -582,7 +702,7 @@
       <c r="B1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="0" t="s">
         <v>24</v>
       </c>
     </row>
@@ -593,8 +713,8 @@
       <c r="B2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>26</v>
+      <c r="C2" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -602,10 +722,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -613,10 +733,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -624,10 +744,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -635,10 +755,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -646,10 +766,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -657,10 +777,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -668,10 +788,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>38</v>
+        <v>26</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -679,10 +799,10 @@
         <v>18</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -690,10 +810,10 @@
         <v>18</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -701,10 +821,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -712,10 +832,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,10 +843,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -747,89 +867,89 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>20210119001</v>
+        <v>20210204001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>7</v>
@@ -837,44 +957,44 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -899,10 +1019,10 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.76"/>
   </cols>
   <sheetData>
@@ -919,10 +1039,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -930,7 +1050,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -938,7 +1058,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -946,7 +1066,259 @@
         <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="37.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>70</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/odkx/forms/hh_mosquito_net.xlsx
+++ b/odkx/forms/hh_mosquito_net.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,7 +13,6 @@
     <sheet name="choices" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="settings" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="model" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="table_specific_translations" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -51,7 +50,7 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">display.prompt</t>
+    <t xml:space="preserve">display.prompt.text</t>
   </si>
   <si>
     <t xml:space="preserve">begin screen</t>
@@ -66,7 +65,7 @@
     <t xml:space="preserve">obtain_net_how_long_ago</t>
   </si>
   <si>
-    <t xml:space="preserve">q55a</t>
+    <t xml:space="preserve">55a. How long ago did you obtain the net?</t>
   </si>
   <si>
     <t xml:space="preserve">yndk</t>
@@ -75,7 +74,7 @@
     <t xml:space="preserve">net_sleep_last_night</t>
   </si>
   <si>
-    <t xml:space="preserve">q55b</t>
+    <t xml:space="preserve">55b. Did someone sleep inside this net last night?</t>
   </si>
   <si>
     <t xml:space="preserve">select_one_with_other</t>
@@ -87,7 +86,7 @@
     <t xml:space="preserve">net_used_other_purpose</t>
   </si>
   <si>
-    <t xml:space="preserve">q55c</t>
+    <t xml:space="preserve">55c. Is the net being used for anything else other than sleeping under?</t>
   </si>
   <si>
     <t xml:space="preserve">end screen</t>
@@ -99,54 +98,87 @@
     <t xml:space="preserve">data_value</t>
   </si>
   <si>
-    <t xml:space="preserve">display.title</t>
+    <t xml:space="preserve">display.title.text</t>
   </si>
   <si>
     <t xml:space="preserve">yes</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">no</t>
   </si>
   <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
     <t xml:space="preserve">dk</t>
   </si>
   <si>
+    <t xml:space="preserve">Don't Know</t>
+  </si>
+  <si>
     <t xml:space="preserve">1_year_ago_or_less</t>
   </si>
   <si>
+    <t xml:space="preserve">1 year ago or less</t>
+  </si>
+  <si>
     <t xml:space="preserve">within_the_past_1-3_years</t>
   </si>
   <si>
+    <t xml:space="preserve">Within the past 1-3 years</t>
+  </si>
+  <si>
     <t xml:space="preserve">more_than_3_years</t>
   </si>
   <si>
-    <t xml:space="preserve">sleep_only</t>
+    <t xml:space="preserve">More than 3 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t know</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, just for sleeping under</t>
   </si>
   <si>
     <t xml:space="preserve">garden_netting</t>
   </si>
   <si>
+    <t xml:space="preserve">For garden netting</t>
+  </si>
+  <si>
     <t xml:space="preserve">fishing</t>
   </si>
   <si>
+    <t xml:space="preserve">For fishing</t>
+  </si>
+  <si>
     <t xml:space="preserve">surrounding_hennery/hennery_construction</t>
   </si>
   <si>
+    <t xml:space="preserve">To surround hennery/hennery construction</t>
+  </si>
+  <si>
     <t xml:space="preserve">preparing_cereals/corn</t>
   </si>
   <si>
+    <t xml:space="preserve">To prepare cereals/corn</t>
+  </si>
+  <si>
     <t xml:space="preserve">cover_vegetables_crops</t>
   </si>
   <si>
+    <t xml:space="preserve">To protect/cover vegetables/crops</t>
+  </si>
+  <si>
     <t xml:space="preserve">setting_name</t>
   </si>
   <si>
     <t xml:space="preserve">value</t>
   </si>
   <si>
-    <t xml:space="preserve">display.title.text</t>
-  </si>
-  <si>
     <t xml:space="preserve">display.title.text.pt</t>
   </si>
   <si>
@@ -205,153 +237,6 @@
   </si>
   <si>
     <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string_token</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text.pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text.sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55a. How long ago did you obtain the net?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55a. Há quanto tempo adquiriu a rede?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55a. Ulipata chandarua hiki muda gani uliopita?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55b. Did someone sleep inside this net last night?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55b. Alguém dormiu dentro desta rede na noite passada?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55b. Je, kunaye aliyelala ndani ya chandarua hiki usiku uliopita?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55c. Is the net being used for anything else other than sleeping under?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55c. A rede está a ser usada para outra finalidade que não seja dormir debaixo da mesma?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55c. Je, chandarua hiki kinatumika kwa kazi nyingine yoyote isipokuwa kulala ndani yake?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ndiyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hapana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Don't Know</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não sabe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sijui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 year ago or less</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Há 1 ano ou menos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mwaka 1 uliopita au chini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Within the past 1-3 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nos últimos 1-3 anos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ndani ya mwaka 1-3 iliyopita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More than 3 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Há mais de 3 anos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zaidi ya miaka 3 iliyopita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No, just for sleeping under</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não, apenas para dormir debaixo dela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hapana, kulala ndani yake tu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For garden netting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para rede de jardim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inatumika kama uzio wa bustani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For fishing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para pescar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kutega samaki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To surround hennery/hennery construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para cercar galinhas/capoeiras/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uzio/ujenzi wa banda la kuku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To prepare cereals/corn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para preparar cereais/milho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuandaa nafaka/mahindi, mchele ngano na mtama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To protect/cover vegetables/crops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para proteger/cobrir hortas/culturas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kulinda/kufunika mboga/mimea</t>
   </si>
 </sst>
 </file>
@@ -538,7 +423,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -580,17 +465,10 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.86"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -605,7 +483,7 @@
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -616,6 +494,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
@@ -628,7 +507,7 @@
       <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -643,7 +522,7 @@
       <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -658,7 +537,7 @@
       <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -689,10 +568,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -702,7 +582,7 @@
       <c r="B1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -713,8 +593,8 @@
       <c r="B2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>25</v>
+      <c r="C2" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -722,10 +602,10 @@
         <v>14</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -733,10 +613,10 @@
         <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -744,10 +624,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -755,10 +635,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -766,10 +646,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -777,10 +657,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -788,10 +668,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -799,10 +679,10 @@
         <v>18</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,10 +690,10 @@
         <v>18</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -821,10 +701,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -832,10 +712,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -843,10 +723,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -867,89 +747,89 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>20210204001</v>
+        <v>20210119001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>7</v>
@@ -957,44 +837,44 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1019,10 +899,10 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.76"/>
   </cols>
   <sheetData>
@@ -1039,10 +919,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1050,7 +930,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1058,7 +938,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,259 +946,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="37.54"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
